--- a/mrp_dataset.xlsx
+++ b/mrp_dataset.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Part_Number</t>
   </si>
@@ -103,6 +103,48 @@
   </si>
   <si>
     <t>213A3161-9</t>
+  </si>
+  <si>
+    <t>Total Parts Analyzed</t>
+  </si>
+  <si>
+    <t>Number of Stockouts</t>
+  </si>
+  <si>
+    <t>Number of Exceptions</t>
+  </si>
+  <si>
+    <t>Average Forecast Error</t>
+  </si>
+  <si>
+    <t>Max Forecast Error</t>
+  </si>
+  <si>
+    <t>Min Forecast Error</t>
+  </si>
+  <si>
+    <t>Key Observations</t>
+  </si>
+  <si>
+    <t>A significant portion of parts triggered exception flags, indicating instability in planning inputs.</t>
+  </si>
+  <si>
+    <t>Stockouts appeared even when forecasts were relatively close, suggesting sensitivity to lead time and safety stock.</t>
+  </si>
+  <si>
+    <t>Exception-based review would allow planners to focus on high-risk parts instead of reviewing everything manually.</t>
+  </si>
+  <si>
+    <t>Why This Matters</t>
+  </si>
+  <si>
+    <t>Demonstrates how simple analytics can reveal hidden inefficiencies.</t>
+  </si>
+  <si>
+    <t>Shows potential to improve operational efficiency without expensive system changes.</t>
+  </si>
+  <si>
+    <t>Supports broader application in manufacturing environments facing similar planning challenges.</t>
   </si>
 </sst>
 </file>
@@ -11833,9 +11875,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11843,6 +11886,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9733">
     <cellStyle name="1" xfId="3"/>
@@ -21589,6 +21636,109 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="1838325"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="1800225"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -21878,8 +22028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21896,31 +22046,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -21928,30 +22078,30 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>80</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>81</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>45</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(F2&lt;C2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <f>C2-B2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(OR(ABS(H2)&gt;30,G2="Yes"),"Exception","Normal")</f>
         <v>Exception</v>
       </c>
@@ -21960,30 +22110,30 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>100</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>95</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>45</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>15</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>89</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G21" si="0">IF(F3&lt;C3,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <f t="shared" ref="H3:H21" si="1">C3-B3</f>
         <v>-5</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I21" si="2">IF(OR(ABS(H3)&gt;30,G3="Yes"),"Exception","Normal")</f>
         <v>Exception</v>
       </c>
@@ -21992,30 +22142,30 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>150</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>155</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>45</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>15</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>71</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22024,30 +22174,30 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>110</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>100</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>45</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>15</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22056,30 +22206,30 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>190</v>
       </c>
-      <c r="C6" s="3">
-        <v>181</v>
+      <c r="C6" s="4">
+        <v>155</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>45</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>15</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>35</v>
       </c>
-      <c r="G6" s="3" t="str">
+      <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-35</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22088,30 +22238,30 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>90</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>95</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>45</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>77</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22120,30 +22270,30 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>120</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>121</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>45</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>90</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22152,30 +22302,30 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>180</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>170</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>45</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>15</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>110</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22184,30 +22334,30 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>130</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>140</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>45</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>15</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>180</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
@@ -22216,30 +22366,30 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>100</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>110</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>45</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>15</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>155</v>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
@@ -22248,30 +22398,30 @@
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>90</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>100</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>45</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>15</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>131</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="I12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
@@ -22280,30 +22430,30 @@
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>80</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>90</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>45</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>15</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>82</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22312,30 +22462,30 @@
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>200</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>230</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>45</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>15</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>43</v>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="I14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22344,30 +22494,30 @@
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>150</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>138</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>45</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>15</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>84</v>
       </c>
-      <c r="G15" s="3" t="str">
+      <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="I15" s="3" t="str">
+      <c r="I15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22376,30 +22526,30 @@
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>190</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>200</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>45</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>15</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>120</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I16" s="3" t="str">
+      <c r="I16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22408,30 +22558,30 @@
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>160</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>170</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>45</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>15</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>56</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I17" s="3" t="str">
+      <c r="I17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22440,30 +22590,30 @@
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>140</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>150</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>45</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>15</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>49</v>
       </c>
-      <c r="G18" s="3" t="str">
+      <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I18" s="3" t="str">
+      <c r="I18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22472,30 +22622,30 @@
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>120</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>130</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>45</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>15</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>50</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I19" s="3" t="str">
+      <c r="I19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22504,30 +22654,30 @@
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>110</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>120</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>45</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>21</v>
       </c>
-      <c r="G20" s="3" t="str">
+      <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I20" s="3" t="str">
+      <c r="I20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22536,30 +22686,30 @@
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>100</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>110</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>45</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>15</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>29</v>
       </c>
-      <c r="G21" s="3" t="str">
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I21" s="3" t="str">
+      <c r="I21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Exception</v>
       </c>
@@ -22584,13 +22734,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <f>COUNTA(Sheet1!A2:A21)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Sheet1!G2:G21,"Yes")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(Sheet1!I2:I21,"Exception")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(Sheet1!H2:H21)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <f>MAX(Sheet1!H2:H21)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <f>+MIN(Sheet1!H2:H21)</f>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
